--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter_v2_0\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F2EEA-F038-4972-9402-D9C5C78C0929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10545"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="100">
   <si>
     <t>NOTES</t>
   </si>
@@ -232,22 +233,6 @@
     <t>Type of free initialisation (i.e. not from specified distribution): 0 = Random (given no. of patches), 1 = All suitable patches</t>
   </si>
   <si>
-    <r>
-      <t>Type of initialisation from species distribution: 0 = All patches within the distribution cells, 1 = Some randomly chosen patches within distribution cells</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Must be 0 or 1 for SeedType = 0</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
   </si>
   <si>
     <t>Required for initDens = 2</t>
-  </si>
-  <si>
-    <t>Patch carrying capacity is  determined by the carrying capacities of the cells forming the patch</t>
   </si>
   <si>
     <t>Initial density of individuals in each patch: 0 = at carrying capacity; 1 = at half carrying capacity; 2 = specified density</t>
@@ -486,12 +468,44 @@
       <t>OMIT COLUMNS</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For a stage-structured model, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used as a proxy for carrying capacity</t>
+    </r>
+  </si>
+  <si>
+    <t>Patch carrying capacity is  determined by the carrying capacities of the cells forming the patch; for a stage-structured model, 1/b is used as a proxy for carrying capacity</t>
+  </si>
+  <si>
+    <t>Type of initialisation from species distribution: 0 = All patches within the distribution cells,    1 = Some randomly chosen patches within distribution cells</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +607,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -792,12 +814,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,6 +945,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -964,6 +997,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1150,16 +1200,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="25" customWidth="1"/>
     <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1195,13 +1245,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1212,10 +1262,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1223,25 +1273,27 @@
         <v>18</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1249,13 +1301,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -1265,11 +1317,11 @@
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1279,9 +1331,9 @@
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -1291,9 +1343,9 @@
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -1303,9 +1355,9 @@
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1333,91 +1385,91 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="D15" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    </row>
+    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
@@ -1427,11 +1479,11 @@
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
@@ -1441,819 +1493,819 @@
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="22"/>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="23"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="23"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="23"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
       <c r="D120" s="23"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="23"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
     </row>
@@ -2268,7 +2320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,39 +2328,39 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2331,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2354,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2377,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2423,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2446,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2469,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2492,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2515,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2538,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2561,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2584,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2607,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2630,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2653,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2676,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2722,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2745,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2768,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2791,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2814,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2843,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2851,43 +2903,43 @@
       <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2913,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2939,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2965,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2991,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3043,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3069,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3095,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3121,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3147,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3199,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3225,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3251,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3277,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3303,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3329,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3381,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3407,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3433,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3459,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3485,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3511,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3543,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3554,16 +3606,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3577,9 +3629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>18</v>
@@ -3588,904 +3640,904 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="22"/>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="24"/>
       <c r="D57" s="23"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="24"/>
       <c r="D90" s="23"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="17"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="24"/>
       <c r="D99" s="23"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="24"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="23"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="23"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="23"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
     </row>
@@ -4496,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4504,28 +4556,28 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4539,7 +4591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4553,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4567,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4581,7 +4633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4595,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4609,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4623,7 +4675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4637,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4657,7 +4709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,32 +4717,32 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4707,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4724,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4741,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4758,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4792,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4809,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4826,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4843,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4860,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4877,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4894,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4911,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4928,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4945,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -4968,7 +5020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4976,36 +5028,36 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5025,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5065,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5085,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5105,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5145,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5165,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5185,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5205,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5225,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5245,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5265,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5285,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5305,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5345,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5365,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5385,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5405,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5425,7 +5477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5445,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5471,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5479,40 +5531,40 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5535,7 +5587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5558,7 +5610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5581,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5604,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5627,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5650,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5673,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5696,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5719,7 +5771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5742,7 +5794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5765,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5788,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5811,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5834,7 +5886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5857,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5880,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5903,7 +5955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5926,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5949,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5972,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5995,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6018,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6041,7 +6093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6064,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6093,7 +6145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6102,27 +6154,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6136,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -6160,22 +6212,22 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6225,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6278,10 +6330,10 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6331,10 +6383,10 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6384,10 +6436,10 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6437,7 +6489,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -6447,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6456,30 +6508,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6493,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -6517,22 +6569,22 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>12</v>
@@ -6544,7 +6596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6594,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6609,7 +6661,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6659,7 +6711,7 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6674,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6724,7 +6776,7 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -6739,7 +6791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6789,7 +6841,7 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -6804,7 +6856,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6854,7 +6906,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2">
         <v>-9</v>
@@ -6876,7 +6928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,16 +6939,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -6910,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6924,7 +6976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -6932,13 +6984,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -6949,10 +7001,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -6960,27 +7012,27 @@
         <v>18</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
@@ -6988,13 +7040,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -7004,11 +7056,11 @@
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -7018,9 +7070,9 @@
       <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -7030,9 +7082,9 @@
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="44"/>
-    </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -7042,9 +7094,9 @@
       <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -7058,7 +7110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -7072,91 +7124,91 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D15" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="D18" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
@@ -7166,11 +7218,11 @@
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
@@ -7180,819 +7232,819 @@
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="42"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="22"/>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="23"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="23"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="23"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
       <c r="D120" s="23"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="23"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
     </row>
@@ -8007,7 +8059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8016,27 +8068,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8050,7 +8102,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>29</v>
@@ -8074,22 +8126,22 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8139,10 +8191,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8192,10 +8244,10 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8245,10 +8297,10 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8298,10 +8350,10 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8351,7 +8403,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8361,7 +8413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8370,30 +8422,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8407,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>29</v>
@@ -8431,22 +8483,22 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>12</v>
@@ -8458,7 +8510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8508,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8523,7 +8575,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8573,7 +8625,7 @@
         <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8588,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8638,7 +8690,7 @@
         <v>-9</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -8653,7 +8705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8703,7 +8755,7 @@
         <v>-9</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -8718,7 +8770,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8768,7 +8820,7 @@
         <v>-9</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2">
         <v>-9</v>
@@ -8790,7 +8842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8801,16 +8853,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -8824,9 +8876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>18</v>
@@ -8835,916 +8887,916 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D5" s="43"/>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
       <c r="D60" s="23"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="17"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="23"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="24"/>
       <c r="D100" s="23"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="24"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="24"/>
       <c r="D105" s="23"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="23"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
       <c r="D109" s="23"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
     </row>
@@ -9758,7 +9810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9766,31 +9818,31 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9807,7 +9859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9824,7 +9876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9841,7 +9893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9858,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9875,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9892,7 +9944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9909,7 +9961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9926,7 +9978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9949,7 +10001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9957,35 +10009,35 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10005,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10025,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10045,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10065,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10085,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10105,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10125,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10145,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10165,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10185,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10205,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10225,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10245,7 +10297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10265,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10285,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>

--- a/doc/Manual/Batchmode/InitialisationFile.xlsx
+++ b/doc/Manual/Batchmode/InitialisationFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F2EEA-F038-4972-9402-D9C5C78C0929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4465CD-0151-4433-9230-CCEBF8534F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Cell-based" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="100">
   <si>
     <t>NOTES</t>
   </si>
@@ -1200,16 +1200,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="15"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D11" s="43"/>
     </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>84</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>82</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>83</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>85</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>73</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
@@ -1495,817 +1495,817 @@
       </c>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="22"/>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="23"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="23"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="23"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
       <c r="D120" s="23"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="23"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
     </row>
@@ -2328,16 +2328,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2900,20 +2900,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3606,16 +3606,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -3637,13 +3637,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>93</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>60</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>61</v>
       </c>
@@ -3727,817 +3727,817 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="20"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="18"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="22"/>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="24"/>
       <c r="D57" s="23"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="23"/>
       <c r="C90" s="24"/>
       <c r="D90" s="23"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="17"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="24"/>
       <c r="D99" s="23"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="24"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="23"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="23"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="23"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="24"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
     </row>
@@ -4553,17 +4553,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -4577,21 +4578,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>51</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4717,15 +4718,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5028,16 +5029,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5531,17 +5532,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6154,27 +6155,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6508,30 +6509,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6939,16 +6940,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.6640625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="58" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="15"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>29</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -7072,7 +7073,7 @@
       </c>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -7084,7 +7085,7 @@
       </c>
       <c r="D10" s="42"/>
     </row>
-    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
@@ -7096,7 +7097,7 @@
       </c>
       <c r="D11" s="43"/>
     </row>
-    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>84</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>82</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>83</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>85</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>73</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="31" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
@@ -7222,7 +7223,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
@@ -7234,817 +7235,817 @@
       </c>
       <c r="D21" s="40"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="22"/>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21"/>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21"/>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="23"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="23"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
       <c r="D92" s="20"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="21"/>
       <c r="D93" s="20"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="21"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21"/>
       <c r="D95" s="20"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21"/>
       <c r="D96" s="20"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="21"/>
       <c r="D97" s="20"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="21"/>
       <c r="D98" s="20"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="20"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="20"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="20"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="23"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="23"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="23"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
       <c r="D120" s="23"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="23"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="24"/>
       <c r="C144" s="24"/>
       <c r="D144" s="24"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="24"/>
       <c r="C145" s="24"/>
       <c r="D145" s="24"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="24"/>
       <c r="B146" s="24"/>
       <c r="C146" s="24"/>
       <c r="D146" s="24"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="24"/>
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="24"/>
       <c r="B148" s="24"/>
       <c r="C148" s="24"/>
       <c r="D148" s="24"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="24"/>
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
       <c r="D149" s="24"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="24"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
       <c r="D150" s="24"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="24"/>
       <c r="B152" s="24"/>
       <c r="C152" s="24"/>
       <c r="D152" s="24"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="24"/>
       <c r="B153" s="24"/>
       <c r="C153" s="24"/>
       <c r="D153" s="24"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="24"/>
       <c r="B154" s="24"/>
       <c r="C154" s="24"/>
       <c r="D154" s="24"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="24"/>
       <c r="B155" s="24"/>
       <c r="C155" s="24"/>
       <c r="D155" s="24"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
     </row>
@@ -8068,27 +8069,27 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8422,30 +8423,30 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8640,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>0.33400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8853,16 +8854,16 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="15"/>
+    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
@@ -8884,13 +8885,13 @@
         <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
@@ -8930,7 +8931,7 @@
       </c>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>93</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
@@ -8972,7 +8973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>61</v>
       </c>
@@ -8986,817 +8987,817 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
       <c r="D25" s="20"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="22"/>
       <c r="D41" s="19"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21"/>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
       <c r="D47" s="20"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
       <c r="D54" s="20"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21"/>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21"/>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24"/>
       <c r="D60" s="23"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="17"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
       <c r="D77" s="20"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
       <c r="D79" s="20"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
       <c r="D80" s="20"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
       <c r="D81" s="20"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
       <c r="D82" s="20"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="21"/>
       <c r="D83" s="20"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="21"/>
       <c r="D85" s="20"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
       <c r="D87" s="20"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
       <c r="D88" s="20"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
       <c r="D89" s="20"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
       <c r="D90" s="20"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="23"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="23"/>
       <c r="C100" s="24"/>
       <c r="D100" s="23"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="24"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="23"/>
       <c r="C105" s="24"/>
       <c r="D105" s="23"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="23"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="23"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
       <c r="D109" s="23"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="23"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="24"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
       <c r="B121" s="24"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="24"/>
       <c r="C122" s="24"/>
       <c r="D122" s="24"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="24"/>
       <c r="B123" s="24"/>
       <c r="C123" s="24"/>
       <c r="D123" s="24"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="24"/>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
       <c r="D124" s="24"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="24"/>
       <c r="B125" s="24"/>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
       <c r="D126" s="24"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24"/>
       <c r="C127" s="24"/>
       <c r="D127" s="24"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24"/>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
       <c r="B129" s="24"/>
       <c r="C129" s="24"/>
       <c r="D129" s="24"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
       <c r="B130" s="24"/>
       <c r="C130" s="24"/>
       <c r="D130" s="24"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="24"/>
       <c r="C131" s="24"/>
       <c r="D131" s="24"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="24"/>
       <c r="B132" s="24"/>
       <c r="C132" s="24"/>
       <c r="D132" s="24"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="24"/>
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="24"/>
       <c r="B135" s="24"/>
       <c r="C135" s="24"/>
       <c r="D135" s="24"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="24"/>
       <c r="B136" s="24"/>
       <c r="C136" s="24"/>
       <c r="D136" s="24"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24"/>
       <c r="C137" s="24"/>
       <c r="D137" s="24"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="24"/>
       <c r="B138" s="24"/>
       <c r="C138" s="24"/>
       <c r="D138" s="24"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="24"/>
       <c r="B139" s="24"/>
       <c r="C139" s="24"/>
       <c r="D139" s="24"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="24"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
       <c r="D140" s="24"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="24"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
       <c r="D141" s="24"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
       <c r="D143" s="24"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
     </row>
@@ -9815,17 +9816,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -9842,15 +9844,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>27</v>
+      <c r="C2" t="s">
+        <v>51</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -9859,7 +9861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9876,7 +9878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9927,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9944,7 +9946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9961,7 +9963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -9978,7 +9980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -10009,15 +10011,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>51</v>
       </c>
@@ -10037,7 +10039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10057,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10097,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10117,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10217,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -10337,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
